--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.00273318332613</v>
+        <v>6.312821333333335</v>
       </c>
       <c r="H2">
-        <v>6.00273318332613</v>
+        <v>18.938464</v>
       </c>
       <c r="I2">
-        <v>0.3022110247354993</v>
+        <v>0.3104630857074662</v>
       </c>
       <c r="J2">
-        <v>0.3022110247354993</v>
+        <v>0.3104630857074661</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.089736397691651</v>
+        <v>9.816292333333331</v>
       </c>
       <c r="N2">
-        <v>9.089736397691651</v>
+        <v>29.448877</v>
       </c>
       <c r="O2">
-        <v>0.347083121577179</v>
+        <v>0.3637676450248369</v>
       </c>
       <c r="P2">
-        <v>0.347083121577179</v>
+        <v>0.3637676450248368</v>
       </c>
       <c r="Q2">
-        <v>54.56326230211099</v>
+        <v>61.96849965610311</v>
       </c>
       <c r="R2">
-        <v>54.56326230211099</v>
+        <v>557.716496904928</v>
       </c>
       <c r="S2">
-        <v>0.1048923458402352</v>
+        <v>0.1129364255549491</v>
       </c>
       <c r="T2">
-        <v>0.1048923458402352</v>
+        <v>0.112936425554949</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.00273318332613</v>
+        <v>6.312821333333335</v>
       </c>
       <c r="H3">
-        <v>6.00273318332613</v>
+        <v>18.938464</v>
       </c>
       <c r="I3">
-        <v>0.3022110247354993</v>
+        <v>0.3104630857074662</v>
       </c>
       <c r="J3">
-        <v>0.3022110247354993</v>
+        <v>0.3104630857074661</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.2532329957138</v>
+        <v>11.28584166666666</v>
       </c>
       <c r="N3">
-        <v>11.2532329957138</v>
+        <v>33.857525</v>
       </c>
       <c r="O3">
-        <v>0.4296942249039851</v>
+        <v>0.4182255281116336</v>
       </c>
       <c r="P3">
-        <v>0.4296942249039851</v>
+        <v>0.4182255281116335</v>
       </c>
       <c r="Q3">
-        <v>67.55015512307175</v>
+        <v>71.24550203795556</v>
       </c>
       <c r="R3">
-        <v>67.55015512307175</v>
+        <v>641.2095183416001</v>
       </c>
       <c r="S3">
-        <v>0.1298583320311595</v>
+        <v>0.1298435879791724</v>
       </c>
       <c r="T3">
-        <v>0.1298583320311595</v>
+        <v>0.1298435879791724</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.00273318332613</v>
+        <v>6.312821333333335</v>
       </c>
       <c r="H4">
-        <v>6.00273318332613</v>
+        <v>18.938464</v>
       </c>
       <c r="I4">
-        <v>0.3022110247354993</v>
+        <v>0.3104630857074662</v>
       </c>
       <c r="J4">
-        <v>0.3022110247354993</v>
+        <v>0.3104630857074661</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.84596297641713</v>
+        <v>5.882927666666667</v>
       </c>
       <c r="N4">
-        <v>5.84596297641713</v>
+        <v>17.648783</v>
       </c>
       <c r="O4">
-        <v>0.2232226535188358</v>
+        <v>0.2180068268635295</v>
       </c>
       <c r="P4">
-        <v>0.2232226535188358</v>
+        <v>0.2180068268635295</v>
       </c>
       <c r="Q4">
-        <v>35.0917559470351</v>
+        <v>37.13787127659023</v>
       </c>
       <c r="R4">
-        <v>35.0917559470351</v>
+        <v>334.2408414893121</v>
       </c>
       <c r="S4">
-        <v>0.06746034686410469</v>
+        <v>0.06768307217334471</v>
       </c>
       <c r="T4">
-        <v>0.06746034686410469</v>
+        <v>0.06768307217334468</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.218199153867269</v>
+        <v>9.354969666666667</v>
       </c>
       <c r="H5">
-        <v>9.218199153867269</v>
+        <v>28.064909</v>
       </c>
       <c r="I5">
-        <v>0.4640954924074266</v>
+        <v>0.4600752335690602</v>
       </c>
       <c r="J5">
-        <v>0.4640954924074266</v>
+        <v>0.4600752335690601</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.089736397691651</v>
+        <v>9.816292333333331</v>
       </c>
       <c r="N5">
-        <v>9.089736397691651</v>
+        <v>29.448877</v>
       </c>
       <c r="O5">
-        <v>0.347083121577179</v>
+        <v>0.3637676450248369</v>
       </c>
       <c r="P5">
-        <v>0.347083121577179</v>
+        <v>0.3637676450248368</v>
       </c>
       <c r="Q5">
-        <v>83.7910003700777</v>
+        <v>91.83111701746587</v>
       </c>
       <c r="R5">
-        <v>83.7910003700777</v>
+        <v>826.4800531571929</v>
       </c>
       <c r="S5">
-        <v>0.1610797122146676</v>
+        <v>0.1673604842496688</v>
       </c>
       <c r="T5">
-        <v>0.1610797122146676</v>
+        <v>0.1673604842496688</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.218199153867269</v>
+        <v>9.354969666666667</v>
       </c>
       <c r="H6">
-        <v>9.218199153867269</v>
+        <v>28.064909</v>
       </c>
       <c r="I6">
-        <v>0.4640954924074266</v>
+        <v>0.4600752335690602</v>
       </c>
       <c r="J6">
-        <v>0.4640954924074266</v>
+        <v>0.4600752335690601</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.2532329957138</v>
+        <v>11.28584166666666</v>
       </c>
       <c r="N6">
-        <v>11.2532329957138</v>
+        <v>33.857525</v>
       </c>
       <c r="O6">
-        <v>0.4296942249039851</v>
+        <v>0.4182255281116336</v>
       </c>
       <c r="P6">
-        <v>0.4296942249039851</v>
+        <v>0.4182255281116335</v>
       </c>
       <c r="Q6">
-        <v>103.7345428793602</v>
+        <v>105.5787064544694</v>
       </c>
       <c r="R6">
-        <v>103.7345428793602</v>
+        <v>950.2083580902249</v>
       </c>
       <c r="S6">
-        <v>0.1994191528914425</v>
+        <v>0.1924152075305034</v>
       </c>
       <c r="T6">
-        <v>0.1994191528914425</v>
+        <v>0.1924152075305033</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.218199153867269</v>
+        <v>9.354969666666667</v>
       </c>
       <c r="H7">
-        <v>9.218199153867269</v>
+        <v>28.064909</v>
       </c>
       <c r="I7">
-        <v>0.4640954924074266</v>
+        <v>0.4600752335690602</v>
       </c>
       <c r="J7">
-        <v>0.4640954924074266</v>
+        <v>0.4600752335690601</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.84596297641713</v>
+        <v>5.882927666666667</v>
       </c>
       <c r="N7">
-        <v>5.84596297641713</v>
+        <v>17.648783</v>
       </c>
       <c r="O7">
-        <v>0.2232226535188358</v>
+        <v>0.2180068268635295</v>
       </c>
       <c r="P7">
-        <v>0.2232226535188358</v>
+        <v>0.2180068268635295</v>
       </c>
       <c r="Q7">
-        <v>53.88925096274777</v>
+        <v>55.03460987286078</v>
       </c>
       <c r="R7">
-        <v>53.88925096274777</v>
+        <v>495.311488855747</v>
       </c>
       <c r="S7">
-        <v>0.1035966273013165</v>
+        <v>0.100299541788888</v>
       </c>
       <c r="T7">
-        <v>0.1035966273013165</v>
+        <v>0.100299541788888</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.64178838446073</v>
+        <v>4.665774</v>
       </c>
       <c r="H8">
-        <v>4.64178838446073</v>
+        <v>13.997322</v>
       </c>
       <c r="I8">
-        <v>0.2336934828570741</v>
+        <v>0.2294616807234737</v>
       </c>
       <c r="J8">
-        <v>0.2336934828570741</v>
+        <v>0.2294616807234737</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.089736397691651</v>
+        <v>9.816292333333331</v>
       </c>
       <c r="N8">
-        <v>9.089736397691651</v>
+        <v>29.448877</v>
       </c>
       <c r="O8">
-        <v>0.347083121577179</v>
+        <v>0.3637676450248369</v>
       </c>
       <c r="P8">
-        <v>0.347083121577179</v>
+        <v>0.3637676450248368</v>
       </c>
       <c r="Q8">
-        <v>42.19263282861502</v>
+        <v>45.80060154526599</v>
       </c>
       <c r="R8">
-        <v>42.19263282861502</v>
+        <v>412.205413907394</v>
       </c>
       <c r="S8">
-        <v>0.08111106352227626</v>
+        <v>0.08347073522021904</v>
       </c>
       <c r="T8">
-        <v>0.08111106352227626</v>
+        <v>0.08347073522021903</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.64178838446073</v>
+        <v>4.665774</v>
       </c>
       <c r="H9">
-        <v>4.64178838446073</v>
+        <v>13.997322</v>
       </c>
       <c r="I9">
-        <v>0.2336934828570741</v>
+        <v>0.2294616807234737</v>
       </c>
       <c r="J9">
-        <v>0.2336934828570741</v>
+        <v>0.2294616807234737</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.2532329957138</v>
+        <v>11.28584166666666</v>
       </c>
       <c r="N9">
-        <v>11.2532329957138</v>
+        <v>33.857525</v>
       </c>
       <c r="O9">
-        <v>0.4296942249039851</v>
+        <v>0.4182255281116336</v>
       </c>
       <c r="P9">
-        <v>0.4296942249039851</v>
+        <v>0.4182255281116335</v>
       </c>
       <c r="Q9">
-        <v>52.23512620713454</v>
+        <v>52.65718661644999</v>
       </c>
       <c r="R9">
-        <v>52.23512620713454</v>
+        <v>473.9146795480499</v>
       </c>
       <c r="S9">
-        <v>0.1004167399813832</v>
+        <v>0.09596673260195786</v>
       </c>
       <c r="T9">
-        <v>0.1004167399813832</v>
+        <v>0.09596673260195783</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.64178838446073</v>
+        <v>4.665774</v>
       </c>
       <c r="H10">
-        <v>4.64178838446073</v>
+        <v>13.997322</v>
       </c>
       <c r="I10">
-        <v>0.2336934828570741</v>
+        <v>0.2294616807234737</v>
       </c>
       <c r="J10">
-        <v>0.2336934828570741</v>
+        <v>0.2294616807234737</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.84596297641713</v>
+        <v>5.882927666666667</v>
       </c>
       <c r="N10">
-        <v>5.84596297641713</v>
+        <v>17.648783</v>
       </c>
       <c r="O10">
-        <v>0.2232226535188358</v>
+        <v>0.2180068268635295</v>
       </c>
       <c r="P10">
-        <v>0.2232226535188358</v>
+        <v>0.2180068268635295</v>
       </c>
       <c r="Q10">
-        <v>27.13572303992051</v>
+        <v>27.448410951014</v>
       </c>
       <c r="R10">
-        <v>27.13572303992051</v>
+        <v>247.035698559126</v>
       </c>
       <c r="S10">
-        <v>0.05216567935341466</v>
+        <v>0.05002421290129683</v>
       </c>
       <c r="T10">
-        <v>0.05216567935341466</v>
+        <v>0.05002421290129682</v>
       </c>
     </row>
   </sheetData>
